--- a/biology/Botanique/Maripa_violacea/Maripa_violacea.xlsx
+++ b/biology/Botanique/Maripa_violacea/Maripa_violacea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maripa violacea est une espèce de liane ligneuse appartenant à la famille des Convolvulaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maripa violacea est présente dans le nord du Brésil, en Guyane, au Guyana, au Suriname et au Venezuela[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maripa violacea est présente dans le nord du Brésil, en Guyane, au Guyana, au Suriname et au Venezuela.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet (qui décrivit pour la première fois cette espèce) rapporte ceci[4] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet (qui décrivit pour la première fois cette espèce) rapporte ceci : 
 « MOUROUCOA violacea. (Tabula 54.)
 Frutex ſarmentoſus, sarmentis tubuloſis, longiſſimis, ſuprà altiſſimas arbores expanſis, &amp; propendentibus. Folia alterna, ovata, glabra, rigida, integerrima, acuta, ſemiplicata, petiolata. FLORES ampli, cærulei, corymboſi, axillares, pedunculo communi longo, craſſo ſuffulti. Capsula ſtriata, fibroſa, coriacea, rufeſcens. Calix non deciduus.
 Florebat fructumque ferebat Maïo.
